--- a/data/P16tableB1.xlsx
+++ b/data/P16tableB1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Dropbox\Projects\20200721_grbExcessRate\git\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C80D29-E9CF-4CDB-8C28-766B4A693E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528EF829-FD11-44A1-B763-5BF030D7C5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9255" yWindow="1050" windowWidth="18375" windowHeight="13980" xr2:uid="{89DE5EBF-1A1E-4342-9E7A-8649BA37E7CC}"/>
+    <workbookView xWindow="15300" yWindow="2100" windowWidth="18375" windowHeight="13980" xr2:uid="{89DE5EBF-1A1E-4342-9E7A-8649BA37E7CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>GRB</t>
   </si>
   <si>
-    <t>050318</t>
-  </si>
-  <si>
     <t>050401</t>
   </si>
   <si>
@@ -60,18 +57,12 @@
     <t>060210</t>
   </si>
   <si>
-    <t>060306</t>
-  </si>
-  <si>
     <t>060614</t>
   </si>
   <si>
     <t>060814</t>
   </si>
   <si>
-    <t>060904A</t>
-  </si>
-  <si>
     <t>060908</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
     <t>080607</t>
   </si>
   <si>
-    <t>080613B</t>
-  </si>
-  <si>
     <t>080721</t>
   </si>
   <si>
@@ -210,36 +198,18 @@
     <t>110503A</t>
   </si>
   <si>
-    <t>110709A</t>
-  </si>
-  <si>
-    <t>110709B</t>
-  </si>
-  <si>
-    <t>110915A</t>
-  </si>
-  <si>
     <t>111008A</t>
   </si>
   <si>
     <t>111228A</t>
   </si>
   <si>
-    <t>120102A</t>
-  </si>
-  <si>
-    <t>120116A</t>
-  </si>
-  <si>
     <t>120119A</t>
   </si>
   <si>
     <t>120326A</t>
   </si>
   <si>
-    <t>120703A</t>
-  </si>
-  <si>
     <t>120729A</t>
   </si>
   <si>
@@ -255,9 +225,6 @@
     <t>121123A</t>
   </si>
   <si>
-    <t>121125A</t>
-  </si>
-  <si>
     <t>121209A</t>
   </si>
   <si>
@@ -270,27 +237,15 @@
     <t>130427B</t>
   </si>
   <si>
-    <t>130502A</t>
-  </si>
-  <si>
     <t>130505A</t>
   </si>
   <si>
-    <t>130527A</t>
-  </si>
-  <si>
     <t>130606A</t>
   </si>
   <si>
-    <t>130609B</t>
-  </si>
-  <si>
     <t>130701A</t>
   </si>
   <si>
-    <t>130803A</t>
-  </si>
-  <si>
     <t>130831A</t>
   </si>
   <si>
@@ -303,15 +258,9 @@
     <t>131105A</t>
   </si>
   <si>
-    <t>140102A</t>
-  </si>
-  <si>
     <t>140206A</t>
   </si>
   <si>
-    <t>140215A</t>
-  </si>
-  <si>
     <t>140419A</t>
   </si>
   <si>
@@ -319,12 +268,6 @@
   </si>
   <si>
     <t>140512A</t>
-  </si>
-  <si>
-    <t>140619A</t>
-  </si>
-  <si>
-    <t>140628A</t>
   </si>
   <si>
     <t>140629A</t>
@@ -375,10 +318,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6C7FC1-C7DF-408C-84FE-C0CC4DC1F0CD}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,18 +655,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3">
+        <v>50318</v>
       </c>
       <c r="B2">
         <v>1.44</v>
@@ -736,7 +680,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2.9</v>
@@ -750,7 +694,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0.65300000000000002</v>
@@ -762,7 +706,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0.60599999999999998</v>
@@ -774,7 +718,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1.71</v>
@@ -788,7 +732,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2.198</v>
@@ -802,7 +746,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>4.048</v>
@@ -816,7 +760,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3.91</v>
@@ -827,1083 +771,960 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4.7100000000000002E-7</v>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.125</v>
       </c>
       <c r="D10" s="2">
-        <v>1.1489999999999999E+52</v>
+        <v>5.0000000000000004E+49</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>0.125</v>
+        <v>1.92</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.1299999999999999E-6</v>
       </c>
       <c r="D11" s="2">
-        <v>5.0000000000000004E+49</v>
+        <v>7.1699999999999998E+52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="C12" s="2">
-        <v>2.1299999999999999E-6</v>
+        <v>2.8099999999999999E-7</v>
       </c>
       <c r="D12" s="2">
-        <v>7.1699999999999998E+52</v>
+        <v>1.2699999999999999E+52</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.94</v>
       </c>
       <c r="C13" s="2">
-        <v>1.3E-6</v>
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.0599999999999999E+52</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>1.88</v>
+        <v>5.47</v>
       </c>
       <c r="C14" s="2">
-        <v>2.8099999999999999E-7</v>
+        <v>2.4699999999999998E-7</v>
       </c>
       <c r="D14" s="2">
-        <v>1.2699999999999999E+52</v>
+        <v>1.087E+53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>0.94</v>
+        <v>1.2609999999999999</v>
       </c>
       <c r="C15" s="2">
-        <v>2.5000000000000002E-6</v>
+        <v>1.2E-5</v>
       </c>
       <c r="D15" s="2">
-        <v>2.0599999999999999E+52</v>
+        <v>1.092E+53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>5.47</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="C16" s="2">
-        <v>2.4699999999999998E-7</v>
+        <v>3.72E-6</v>
       </c>
       <c r="D16" s="2">
-        <v>1.087E+53</v>
+        <v>1.7699999999999999E+51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>1.2609999999999999</v>
+        <v>1.3140000000000001</v>
       </c>
       <c r="C17" s="2">
-        <v>1.2E-5</v>
+        <v>1.2799999999999999E-5</v>
       </c>
       <c r="D17" s="2">
-        <v>1.092E+53</v>
+        <v>1.42E+53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>0.34599999999999997</v>
+        <v>2.09</v>
       </c>
       <c r="C18" s="2">
-        <v>3.72E-6</v>
+        <v>4.7999999999999998E-6</v>
       </c>
       <c r="D18" s="2">
-        <v>1.7699999999999999E+51</v>
+        <v>1.4E+53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>1.3140000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="C19" s="2">
-        <v>1.2799999999999999E-5</v>
+        <v>3.0400000000000002E-7</v>
       </c>
       <c r="D19" s="2">
-        <v>1.42E+53</v>
+        <v>9.9899999999999995E+51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>2.09</v>
+        <v>2.0630000000000002</v>
       </c>
       <c r="C20" s="2">
-        <v>4.7999999999999998E-6</v>
+        <v>5.9000000000000003E-6</v>
       </c>
       <c r="D20" s="2">
-        <v>1.4E+53</v>
+        <v>1.5759999999999999E+53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>1.5</v>
+        <v>2.0870000000000002</v>
       </c>
       <c r="C21" s="2">
-        <v>3.0400000000000002E-7</v>
+        <v>4.1200000000000004E-6</v>
       </c>
       <c r="D21" s="2">
-        <v>9.9899999999999995E+51</v>
+        <v>1.441E+53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>2.0630000000000002</v>
+        <v>2.145</v>
       </c>
       <c r="C22" s="2">
-        <v>5.9000000000000003E-6</v>
+        <v>6.0399999999999998E-6</v>
       </c>
       <c r="D22" s="2">
-        <v>1.5759999999999999E+53</v>
+        <v>2.1300000000000001E+53</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>2.0870000000000002</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4.1200000000000004E-6</v>
+        <v>0.82</v>
       </c>
       <c r="D23" s="2">
-        <v>1.441E+53</v>
+        <v>6.5700000000000006E+51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>2.145</v>
+        <v>1.331</v>
       </c>
       <c r="C24" s="2">
-        <v>6.0399999999999998E-6</v>
+        <v>6.6599999999999998E-6</v>
       </c>
       <c r="D24" s="2">
-        <v>2.1300000000000001E+53</v>
+        <v>9.5399999999999997E+52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>0.82</v>
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2.26E-5</v>
       </c>
       <c r="D25" s="2">
-        <v>6.5700000000000006E+51</v>
+        <v>1.0159999999999999E+53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>1.331</v>
+        <v>1.95</v>
       </c>
       <c r="C26" s="2">
-        <v>6.6599999999999998E-6</v>
+        <v>3.3500000000000001E-6</v>
       </c>
       <c r="D26" s="2">
-        <v>9.5399999999999997E+52</v>
+        <v>9.6099999999999996E+52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>0.93700000000000006</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C27" s="2">
-        <v>2.26E-5</v>
+        <v>1.3999999999999999E-6</v>
       </c>
       <c r="D27" s="2">
-        <v>1.0159999999999999E+53</v>
+        <v>1.49E+52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>1.95</v>
+        <v>0.77</v>
       </c>
       <c r="C28" s="2">
-        <v>3.3500000000000001E-6</v>
+        <v>1.8199999999999999E-7</v>
       </c>
       <c r="D28" s="2">
-        <v>9.6099999999999996E+52</v>
+        <v>1.16E+51</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>1.1000000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="C29" s="2">
-        <v>1.3999999999999999E-6</v>
+        <v>1.9199999999999998E-6</v>
       </c>
       <c r="D29" s="2">
-        <v>1.49E+52</v>
+        <v>5.1E+52</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>0.77</v>
+        <v>2.69</v>
       </c>
       <c r="C30" s="2">
-        <v>1.8199999999999999E-7</v>
+        <v>1.5099999999999999E-6</v>
       </c>
       <c r="D30" s="2">
-        <v>1.16E+51</v>
+        <v>1.166E+53</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="C31" s="2">
-        <v>1.9199999999999998E-6</v>
+        <v>1.5999999999999999E-5</v>
       </c>
       <c r="D31" s="2">
-        <v>5.1E+52</v>
+        <v>3.087E+53</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>2.69</v>
+        <v>3.036</v>
       </c>
       <c r="C32" s="2">
-        <v>1.5099999999999999E-6</v>
+        <v>2.69E-5</v>
       </c>
       <c r="D32" s="2">
-        <v>1.166E+53</v>
+        <v>2.2599999999999999E+54</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>1.64</v>
+        <v>2.5910000000000002</v>
       </c>
       <c r="C33" s="2">
-        <v>1.5999999999999999E-5</v>
+        <v>2.1100000000000001E-5</v>
       </c>
       <c r="D33" s="2">
-        <v>3.087E+53</v>
+        <v>1.0390000000000001E+54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>3.036</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C34" s="2">
-        <v>2.69E-5</v>
+        <v>7.3E-7</v>
       </c>
       <c r="D34" s="2">
-        <v>2.2599999999999999E+54</v>
+        <v>2.7E+52</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.68899999999999995</v>
       </c>
       <c r="C35" s="2">
-        <v>4.7600000000000002E-6</v>
+        <v>4.8699999999999995E-7</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.08E+51</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>2.5910000000000002</v>
-      </c>
-      <c r="C36" s="2">
-        <v>2.1100000000000001E-5</v>
+        <v>0.53</v>
       </c>
       <c r="D36" s="2">
-        <v>1.0390000000000001E+54</v>
+        <v>4.2999999999999997E+50</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>2.2000000000000002</v>
+        <v>2.512</v>
       </c>
       <c r="C37" s="2">
-        <v>7.3E-7</v>
+        <v>5.1699999999999996E-6</v>
       </c>
       <c r="D37" s="2">
-        <v>2.7E+52</v>
+        <v>1.9540000000000002E+53</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="C38" s="2">
-        <v>4.8699999999999995E-7</v>
+        <v>2.1</v>
       </c>
       <c r="D38" s="2">
-        <v>1.08E+51</v>
+        <v>2.8300000000000001E+52</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>0.53</v>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2.4200000000000001E-6</v>
       </c>
       <c r="D39" s="2">
-        <v>4.2999999999999997E+50</v>
+        <v>1.0100000000000001E+53</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>2.512</v>
+        <v>2.77</v>
       </c>
       <c r="C40" s="2">
-        <v>5.1699999999999996E-6</v>
+        <v>1.7600000000000001E-6</v>
       </c>
       <c r="D40" s="2">
-        <v>1.9540000000000002E+53</v>
+        <v>9.4999999999999999E+52</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>2.1</v>
+        <v>1.5469999999999999</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2.9299999999999999E-6</v>
       </c>
       <c r="D41" s="2">
-        <v>2.8300000000000001E+52</v>
+        <v>4.5699999999999999E+52</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>2.2599999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="C42" s="2">
-        <v>2.4200000000000001E-6</v>
+        <v>7.3000000000000004E-6</v>
       </c>
       <c r="D42" s="2">
-        <v>1.0100000000000001E+53</v>
+        <v>2.6950000000000001E+53</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>2.77</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="C43" s="2">
-        <v>1.7600000000000001E-6</v>
+        <v>9.1200000000000008E-6</v>
       </c>
       <c r="D43" s="2">
-        <v>9.4999999999999999E+52</v>
+        <v>1.116E+52</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>1.5469999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="C44" s="2">
-        <v>2.9299999999999999E-6</v>
+        <v>3.8999999999999999E-6</v>
       </c>
       <c r="D44" s="2">
-        <v>4.5699999999999999E+52</v>
+        <v>9.1900000000000003E+52</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="C45" s="2">
-        <v>7.3000000000000004E-6</v>
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="D45" s="2">
-        <v>2.6950000000000001E+53</v>
+        <v>8.2600000000000002E+52</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="C46" s="2">
-        <v>9.1200000000000008E-6</v>
+        <v>2.452</v>
       </c>
       <c r="D46" s="2">
-        <v>1.116E+52</v>
+        <v>9.629999999999999E+52</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="C47" s="2">
-        <v>3.8999999999999999E-6</v>
+        <v>4.7300000000000001E-7</v>
       </c>
       <c r="D47" s="2">
-        <v>9.1900000000000003E+52</v>
+        <v>4.2800000000000001E+51</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="C48" s="2">
-        <v>8.9999999999999996E-7</v>
+        <v>4.32E-7</v>
       </c>
       <c r="D48" s="2">
-        <v>8.2600000000000002E+52</v>
+        <v>4.75E+51</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>2.452</v>
+        <v>1.71</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1.88E-6</v>
       </c>
       <c r="D49" s="2">
-        <v>9.629999999999999E+52</v>
+        <v>3.2699999999999999E+52</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>1.24</v>
+        <v>0.49</v>
       </c>
       <c r="C50" s="2">
-        <v>4.7300000000000001E-7</v>
+        <v>9.38E-6</v>
       </c>
       <c r="D50" s="2">
-        <v>4.2800000000000001E+51</v>
+        <v>9.0900000000000003E+51</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>0.97099999999999997</v>
+        <v>1.0629999999999999</v>
       </c>
       <c r="C51" s="2">
-        <v>4.32E-7</v>
+        <v>2.5600000000000001E-6</v>
       </c>
       <c r="D51" s="2">
-        <v>4.75E+51</v>
+        <v>1.75E+52</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>1.71</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1.88E-6</v>
+        <v>1.4</v>
       </c>
       <c r="D52" s="2">
-        <v>3.2699999999999999E+52</v>
+        <v>1.015E+52</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>0.49</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="C53" s="2">
-        <v>9.38E-6</v>
+        <v>1.7E-6</v>
       </c>
       <c r="D53" s="2">
-        <v>9.0900000000000003E+51</v>
+        <v>3.1700000000000001E+51</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>1.0629999999999999</v>
+        <v>2.1059999999999999</v>
       </c>
       <c r="C54" s="2">
-        <v>2.5600000000000001E-6</v>
+        <v>5.4300000000000003E-7</v>
       </c>
       <c r="D54" s="2">
-        <v>1.75E+52</v>
+        <v>1.8699999999999999E+52</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>1.4</v>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5.0999999999999999E-7</v>
       </c>
       <c r="D55" s="2">
-        <v>1.015E+52</v>
+        <v>2.5100000000000002E+52</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>0.54200000000000004</v>
+        <v>1.613</v>
       </c>
       <c r="C56" s="2">
-        <v>1.7E-6</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D56" s="2">
-        <v>3.1700000000000001E+51</v>
+        <v>1.807E+53</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>2.1059999999999999</v>
-      </c>
-      <c r="C57" s="2">
-        <v>5.4300000000000003E-7</v>
+        <v>4.9889999999999999</v>
       </c>
       <c r="D57" s="2">
-        <v>1.8699999999999999E+52</v>
+        <v>3.033E+53</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="C58" s="2">
-        <v>5.0999999999999999E-7</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="D58" s="2">
-        <v>2.5100000000000002E+52</v>
+        <v>3.64E+51</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>1.613</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>1.728</v>
       </c>
       <c r="D59" s="2">
-        <v>1.807E+53</v>
+        <v>5.6900000000000003E+52</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1.798</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1.08E+52</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1.1000000000000001E-6</v>
+        <v>0.8</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1.27E+51</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3.7959999999999998</v>
+      </c>
+      <c r="D62" s="2">
+        <v>4.0699999999999999E+52</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>4.9889999999999999</v>
+        <v>2.6709999999999998</v>
       </c>
       <c r="D63" s="2">
-        <v>3.033E+53</v>
+        <v>2.5399999999999998E+52</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>0.71499999999999997</v>
+        <v>0.97</v>
       </c>
       <c r="D64" s="2">
-        <v>3.64E+51</v>
+        <v>2.4499999999999999E+51</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>2.7</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2.6E-7</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1.49E+52</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>2.1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1.74E+52</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>1.728</v>
+        <v>1.2969999999999999</v>
       </c>
       <c r="D67" s="2">
-        <v>5.6900000000000003E+52</v>
+        <v>3.7700000000000003E+51</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>1.798</v>
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="C68" s="2">
+        <v>6.8999999999999997E-4</v>
       </c>
       <c r="D68" s="2">
-        <v>1.08E+52</v>
+        <v>3.8409999999999997E+53</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>2.78</v>
       </c>
       <c r="C69" s="2">
-        <v>5.4E-6</v>
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2.9E+52</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>0.8</v>
+        <v>2.27</v>
+      </c>
+      <c r="C70" s="2">
+        <v>6.8999999999999997E-5</v>
       </c>
       <c r="D70" s="2">
-        <v>1.27E+51</v>
+        <v>3.9589999999999998E+54</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>3.7959999999999998</v>
+        <v>5.9130000000000003</v>
       </c>
       <c r="D71" s="2">
-        <v>4.0699999999999999E+52</v>
+        <v>2.2950000000000001E+53</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>2.6709999999999998</v>
+        <v>1.155</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1.7099999999999999E-6</v>
       </c>
       <c r="D72" s="2">
-        <v>2.5399999999999998E+52</v>
+        <v>2.8899999999999998E+52</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>0.97</v>
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="D73" s="2">
-        <v>2.4499999999999999E+51</v>
+        <v>3.6799999999999999E+51</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>2.7</v>
+        <v>1.238</v>
       </c>
       <c r="C74" s="2">
-        <v>2.6E-7</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="D74" s="2">
-        <v>1.49E+52</v>
+        <v>1.8559999999999999E+53</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>1.2929999999999999</v>
       </c>
       <c r="C75" s="2">
-        <v>4.2E-7</v>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1.0300000000000001E+53</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>2.1</v>
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="D76" s="2">
-        <v>1.74E+52</v>
+        <v>3.7399999999999998E+52</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>1.2969999999999999</v>
+        <v>2.73</v>
       </c>
       <c r="D77" s="2">
-        <v>3.7700000000000003E+51</v>
+        <v>1.4149999999999999E+53</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>0.33900000000000002</v>
+        <v>3.956</v>
       </c>
       <c r="C78" s="2">
-        <v>6.8999999999999997E-4</v>
+        <v>4.6999999999999999E-6</v>
       </c>
       <c r="D78" s="2">
-        <v>3.8409999999999997E+53</v>
+        <v>5.7259999999999998E+53</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>2.78</v>
-      </c>
-      <c r="C79" s="2">
-        <v>2.9999999999999999E-7</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D79" s="2">
-        <v>2.9E+52</v>
+        <v>1.15E+52</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="2">
-        <v>6.9999999999999997E-7</v>
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.72</v>
+      </c>
+      <c r="D80" s="2">
+        <v>5.2800000000000001E+51</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>2.27</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="C81" s="2">
-        <v>6.8999999999999997E-5</v>
+        <v>4.7E-7</v>
       </c>
       <c r="D81" s="2">
-        <v>3.9589999999999998E+54</v>
+        <v>2.7100000000000002E+52</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="2">
-        <v>5.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>5.9130000000000003</v>
-      </c>
-      <c r="D83" s="2">
-        <v>2.2950000000000001E+53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>1.155</v>
-      </c>
-      <c r="C85" s="2">
-        <v>1.7099999999999999E-6</v>
-      </c>
-      <c r="D85" s="2">
-        <v>2.8899999999999998E+52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="C87" s="2">
-        <v>2.5000000000000002E-6</v>
-      </c>
-      <c r="D87" s="2">
-        <v>3.6799999999999999E+51</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>1.238</v>
-      </c>
-      <c r="C88" s="2">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="D88" s="2">
-        <v>1.8559999999999999E+53</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="C89" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D89" s="2">
-        <v>1.0300000000000001E+53</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>1.6859999999999999</v>
-      </c>
-      <c r="C90" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="D90" s="2">
-        <v>3.7399999999999998E+52</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>2.73</v>
-      </c>
-      <c r="D92" s="2">
-        <v>1.4149999999999999E+53</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="2">
-        <v>3.5700000000000001E-6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>3.956</v>
-      </c>
-      <c r="C94" s="2">
-        <v>4.6999999999999999E-6</v>
-      </c>
-      <c r="D94" s="2">
-        <v>5.7259999999999998E+53</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="D95" s="2">
-        <v>1.15E+52</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>0.72</v>
-      </c>
-      <c r="D96" s="2">
-        <v>5.2800000000000001E+51</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="C99" s="2">
-        <v>4.7E-7</v>
-      </c>
-      <c r="D99" s="2">
-        <v>2.7100000000000002E+52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100">
+        <v>80</v>
+      </c>
+      <c r="B82">
         <v>3.14</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D82" s="2">
         <v>4.1600000000000002E+52</v>
       </c>
     </row>
